--- a/results/minimal_seats-Bulgaria.xlsx
+++ b/results/minimal_seats-Bulgaria.xlsx
@@ -19,52 +19,52 @@
     <t>Key</t>
   </si>
   <si>
-    <t>BNS</t>
-  </si>
-  <si>
-    <t>DPS</t>
-  </si>
-  <si>
-    <t>DSB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KB </t>
-  </si>
-  <si>
-    <t>NDS</t>
-  </si>
-  <si>
-    <t>ODS</t>
-  </si>
-  <si>
-    <t>GER</t>
-  </si>
-  <si>
-    <t>RZS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SK </t>
-  </si>
-  <si>
-    <t>ABV</t>
-  </si>
-  <si>
-    <t>BBT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OP </t>
-  </si>
-  <si>
-    <t>Wil</t>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)</t>
+  </si>
+  <si>
+    <t>DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)</t>
+  </si>
+  <si>
+    <t>KA - Coalition Attack (Koalitsiya 'Ataka', KA)</t>
+  </si>
+  <si>
+    <t>KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)</t>
+  </si>
+  <si>
+    <t>NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)</t>
+  </si>
+  <si>
+    <t>ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)</t>
+  </si>
+  <si>
+    <t>RZS - Order, Law and Justice (Red, Zakonnost I Spravedlivost, RZS)</t>
+  </si>
+  <si>
+    <t>SK - Blue Coalition (Sinyata Koalitzia, SK)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)</t>
+  </si>
+  <si>
+    <t>PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>OP - United Patriots  (Obedineni Patrioti, OP)</t>
+  </si>
+  <si>
+    <t>Will - Will (Volya, Will)</t>
   </si>
   <si>
     <t>2005</t>
